--- a/PeerJ-LS2022/Stats.xlsx
+++ b/PeerJ-LS2022/Stats.xlsx
@@ -74,10 +74,10 @@
     <t xml:space="preserve">Role_06</t>
   </si>
   <si>
-    <t xml:space="preserve">b948c5e1f9fcd1193900146358467e08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">muzm02</t>
+    <t xml:space="preserve">732a2f3f195b8d0903914c644b645b13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xuzm02</t>
   </si>
   <si>
     <t xml:space="preserve">Pilot</t>
@@ -86,163 +86,163 @@
     <t xml:space="preserve">Navigator</t>
   </si>
   <si>
-    <t xml:space="preserve">58a485a102d1a6ca6f537adea667e76b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trad04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d469da0a9f49ee514844f384f474ff3f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">doha05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6d7167b3ac8c82eb7f135be33b782c3a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">utea00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3d7191ea3527ac14352054ff50529024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hoja00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eb9a376b7a93954c6b6a2f7cff0e41f2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vanm32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1cbaf545197ffbd5a82297693c48f061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mulj07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16c3ffcb40042e56a70320540d917647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kand03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ee99f7c2e71a2a6fd362f0fd033ea9a4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">feda07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">125ba35d29dbd3ad377ce5547b6f0109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">morv03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f5b1146ddd25eb01c03b031b6ade4a37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kubd06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5fe8d6aa758c687863adcb966a99c3cd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vejm04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e09a40a0e2f0c650d38a66595a045a0f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kvep00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63dbaa2b91d86ec8b0869367e78709bb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scht09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a715461cd1df80efd8cbd9c4ec0c5591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kopl11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3b552a973de486f794afd5918744dc3a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">otoj00</t>
+    <t xml:space="preserve">b46760af1959e5a87969966dc65b6c8f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xrad04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a8c92e10b44148d74bc2ee990960efb2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xoha05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1c2ab786ac4650ebe381ddb193297cc1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xtea00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aff5acae4320c18a387987dedf6a0161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xoja00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dce52e05f6c505af6829a223db4fc7da</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xanm32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2a6841403b63a8907284469b10fd2f1a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xulj07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b9fbc883c4d2a5a45c2e1e3ef35a6b1d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xand03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d3b875048a7eb4ac828a5a6dd78b1c62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xeda07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">efb57303ac40a4b5d636208977032627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xorv03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72a7371fd7b592eb988fb6b3f8547841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xubd06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14687139b1b4634cd81e240500db5546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xejm04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ce5cc509c3022c379afe0886f6100312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xvep00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">740bfee7b07d213852ac7ffbba842625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xcht09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57c7f0a500f4f1e66bc949d6a6688828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xopl11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14eebca56a282a3140386ce10f02c37c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xtoj00</t>
   </si>
   <si>
     <t xml:space="preserve">Solo</t>
   </si>
   <si>
-    <t xml:space="preserve">aef7c8eaec30e506644cbcc1e3701184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">topa00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">658d810c8b284470f2a24456079f9ca0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">staj19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">523d0901f8d570cb685dccea8bed4a82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zabv03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8ac0ecf636a66cd948875c532e67132a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">strr07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e26323e9415e3ed5c3acb45803a32a88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ploa00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b5a8a9580c5c9b6179f56969623365ea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lasj06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">606e743b7f8fee2dedb98f5bf28dc0ed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mamj01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6df76f83f9784bf35ebb6beb30270ae2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boxm00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">891d69c98b42f93ac678217911daf093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">podm10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b08dc1a8b4f7051c4a9a249ac830ec98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ruzj11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8fff1f533e44710bdd2795544b588ee1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zedj00</t>
+    <t xml:space="preserve">b2d7f3ccf127550448da997562e96207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xopa00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8c09e463211cd22639e7044c6ff55713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xtaj19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8234ded31f4854b527628a356b6941ec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xabv03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2ff32b7998e9722925b7ed7bac3254a6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xtrr07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b76fca21389ed13baae86cd5c334cc41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xloa00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0d20e2813565e040a3c6a65757ef1ddb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xasj06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33abca8ee042c7a3fbf8889150cffd90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xamj01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d993140c0a2316fd3ed617b9c0daa4e2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xoxm00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f1e03417a159177efeb664e0331835ae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xodm10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5573e5b42f52ede65978037777af6b00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xuzj11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f83b3b203ca661fa109ff4869d0436f5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xedj00</t>
   </si>
 </sst>
 </file>
